--- a/docs.xlsx
+++ b/docs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macleand/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jegoussc/GitHub/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A93648B-1B20-7E41-82B6-98DE47A66519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1046D9-0ACA-DD4D-83E8-B9BE1A6E68F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19980" yWindow="10400" windowWidth="27640" windowHeight="16940" xr2:uid="{6A4DEADB-C4E1-8B4A-8160-CAD908C00F84}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{6A4DEADB-C4E1-8B4A-8160-CAD908C00F84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>ENA upload</t>
-  </si>
-  <si>
-    <t>Notes on uploading to ENA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>https://github.com/TeamMacLean/ENA_data_submission</t>
   </si>
@@ -53,6 +47,21 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>ENA submission</t>
+  </si>
+  <si>
+    <t>ENA data upload</t>
+  </si>
+  <si>
+    <t>Notes on submitting data to ENA</t>
+  </si>
+  <si>
+    <t>Notes on uploading data to ENA</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/ENA_data_upload</t>
   </si>
 </sst>
 </file>
@@ -404,34 +413,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB09864-110D-7C4F-BB2A-71AA26C113EE}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docs.xlsx
+++ b/docs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jegoussc/GitHub/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1046D9-0ACA-DD4D-83E8-B9BE1A6E68F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0903811F-991A-8549-B174-1701C465D420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{6A4DEADB-C4E1-8B4A-8160-CAD908C00F84}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>https://github.com/TeamMacLean/ENA_data_submission</t>
   </si>
@@ -62,6 +62,30 @@
   </si>
   <si>
     <t>https://github.com/TeamMacLean/ENA_data_upload</t>
+  </si>
+  <si>
+    <t>Introduction to the shell command line</t>
+  </si>
+  <si>
+    <t>For training TSL staff prior to HPC access</t>
+  </si>
+  <si>
+    <t>https://teammaclean.github.io/intro-shell-cmd-line/</t>
+  </si>
+  <si>
+    <t>https://teammaclean.github.io/tsl-shell-genomics/</t>
+  </si>
+  <si>
+    <t>Shell genomics</t>
+  </si>
+  <si>
+    <t>MSc course</t>
+  </si>
+  <si>
+    <t>https://teammaclean.github.io/tsl-wrangling-genomics/</t>
+  </si>
+  <si>
+    <t>Wrangling genomics</t>
   </si>
 </sst>
 </file>
@@ -413,13 +437,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB09864-110D-7C4F-BB2A-71AA26C113EE}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -452,6 +479,39 @@
       </c>
       <c r="C3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs.xlsx
+++ b/docs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jegoussc/GitHub/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macleand/Desktop/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0903811F-991A-8549-B174-1701C465D420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE33A24-87EF-6545-AFD0-6F760121293B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{6A4DEADB-C4E1-8B4A-8160-CAD908C00F84}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33620" windowHeight="19360" xr2:uid="{6A4DEADB-C4E1-8B4A-8160-CAD908C00F84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>https://github.com/TeamMacLean/ENA_data_submission</t>
   </si>
@@ -86,16 +86,33 @@
   </si>
   <si>
     <t>Wrangling genomics</t>
+  </si>
+  <si>
+    <t>Bioinformatics notices</t>
+  </si>
+  <si>
+    <t>https://bioinformatics.tsl.ac.uk</t>
+  </si>
+  <si>
+    <t>Bioinformatics Blog</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,13 +135,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -141,9 +161,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,7 +201,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -287,7 +307,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -429,7 +449,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -437,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB09864-110D-7C4F-BB2A-71AA26C113EE}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,7 +534,21 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{7AB60476-AE06-9A4A-A1F8-2575E61633AC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs.xlsx
+++ b/docs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macleand/Desktop/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE33A24-87EF-6545-AFD0-6F760121293B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A691F8-D3B9-6F48-8824-54C55414151A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33620" windowHeight="19360" xr2:uid="{6A4DEADB-C4E1-8B4A-8160-CAD908C00F84}"/>
+    <workbookView xWindow="27500" yWindow="4780" windowWidth="33620" windowHeight="19360" xr2:uid="{6A4DEADB-C4E1-8B4A-8160-CAD908C00F84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>https://github.com/TeamMacLean/ENA_data_submission</t>
   </si>
@@ -95,6 +95,24 @@
   </si>
   <si>
     <t>Bioinformatics Blog</t>
+  </si>
+  <si>
+    <t>ChatBot Base</t>
+  </si>
+  <si>
+    <t>Base template for setting up chatbots on shinyapps.io</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/chatbot_base</t>
+  </si>
+  <si>
+    <t>chatbot_system_prompts</t>
+  </si>
+  <si>
+    <t>Stored System prompts for chatbots</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/chatbot_system_prompts</t>
   </si>
 </sst>
 </file>
@@ -457,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB09864-110D-7C4F-BB2A-71AA26C113EE}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,6 +563,28 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{7AB60476-AE06-9A4A-A1F8-2575E61633AC}"/>

--- a/docs.xlsx
+++ b/docs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macleand/Desktop/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A691F8-D3B9-6F48-8824-54C55414151A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94308849-6053-214C-9DA6-409152F8FBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27500" yWindow="4780" windowWidth="33620" windowHeight="19360" xr2:uid="{6A4DEADB-C4E1-8B4A-8160-CAD908C00F84}"/>
+    <workbookView xWindow="17580" yWindow="4780" windowWidth="33620" windowHeight="19360" xr2:uid="{6A4DEADB-C4E1-8B4A-8160-CAD908C00F84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>https://github.com/TeamMacLean/ENA_data_submission</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>https://github.com/TeamMacLean/chatbot_system_prompts</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamMacLean/creating_and_running_projects</t>
+  </si>
+  <si>
+    <t>creating_and_running_projects</t>
+  </si>
+  <si>
+    <t>How to make a new bioinformatics project or repo</t>
   </si>
 </sst>
 </file>
@@ -475,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB09864-110D-7C4F-BB2A-71AA26C113EE}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,6 +594,17 @@
         <v>25</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{7AB60476-AE06-9A4A-A1F8-2575E61633AC}"/>
